--- a/data/trans_orig/IP1012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1012-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D194DABD-840E-4872-B3B3-572979F2FD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EDF8C78-2DFF-4762-9D3A-C86AF1B9F6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5D94263C-348B-4C06-9E7A-4D195ACB8CC2}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2F34C41B-A991-40DA-A8E7-A41462735498}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -109,6 +109,48 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -160,48 +202,6 @@
     <t>1,68%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
     <t>99,21%</t>
   </si>
   <si>
@@ -283,6 +283,48 @@
     <t>1,06%</t>
   </si>
   <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
     <t>99,05%</t>
   </si>
   <si>
@@ -325,48 +367,6 @@
     <t>1,64%</t>
   </si>
   <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
     <t>98,42%</t>
   </si>
   <si>
@@ -436,6 +436,24 @@
     <t>0,94%</t>
   </si>
   <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
     <t>98,14%</t>
   </si>
   <si>
@@ -452,24 +470,6 @@
   </si>
   <si>
     <t>0,82%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
   </si>
   <si>
     <t>99,63%</t>
@@ -891,7 +891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B653FDD-4DB6-4628-A804-0D43A37AF055}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192D1736-F97F-4F66-8959-4788351A1D00}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1164,10 +1164,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>418</v>
+        <v>327</v>
       </c>
       <c r="D7" s="7">
-        <v>278480</v>
+        <v>216042</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>24</v>
@@ -1176,37 +1176,37 @@
         <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
+        <v>304</v>
+      </c>
+      <c r="I7" s="7">
+        <v>205222</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="7">
-        <v>392</v>
-      </c>
-      <c r="I7" s="7">
-        <v>264228</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="7">
+        <v>631</v>
+      </c>
+      <c r="N7" s="7">
+        <v>421264</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="7">
-        <v>810</v>
-      </c>
-      <c r="N7" s="7">
-        <v>542708</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1215,49 +1215,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>3018</v>
+        <v>1999</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>3</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1999</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1375</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="M8" s="7">
-        <v>6</v>
-      </c>
-      <c r="N8" s="7">
-        <v>4393</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1266,10 +1266,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -1281,10 +1281,10 @@
         <v>22</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>22</v>
@@ -1296,10 +1296,10 @@
         <v>22</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>22</v>
@@ -1313,55 +1313,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>327</v>
+        <v>418</v>
       </c>
       <c r="D10" s="7">
-        <v>216042</v>
+        <v>278480</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="7">
+        <v>392</v>
+      </c>
+      <c r="I10" s="7">
+        <v>264228</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>304</v>
-      </c>
-      <c r="I10" s="7">
-        <v>205222</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>810</v>
+      </c>
+      <c r="N10" s="7">
+        <v>542708</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7">
-        <v>631</v>
-      </c>
-      <c r="N10" s="7">
-        <v>421264</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1370,40 +1370,40 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>1999</v>
+        <v>3018</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>1375</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>50</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>1999</v>
+        <v>4393</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>51</v>
@@ -1421,10 +1421,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>22</v>
@@ -1436,10 +1436,10 @@
         <v>22</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>22</v>
@@ -1451,10 +1451,10 @@
         <v>22</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>22</v>
@@ -1486,7 +1486,7 @@
         <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H13" s="7">
         <v>1015</v>
@@ -1534,7 +1534,7 @@
         <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>63</v>
@@ -1637,7 +1637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19B698C-92F3-4A3B-ACBB-EC9401C37CE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554832B9-B12E-4DF0-B2E3-92958AFFE640}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1830,7 +1830,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>78</v>
@@ -1910,10 +1910,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>394</v>
+        <v>330</v>
       </c>
       <c r="D7" s="7">
-        <v>267790</v>
+        <v>238051</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>81</v>
@@ -1922,37 +1922,37 @@
         <v>82</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>317</v>
+      </c>
+      <c r="I7" s="7">
+        <v>226607</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="7">
-        <v>360</v>
-      </c>
-      <c r="I7" s="7">
-        <v>252530</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>754</v>
+        <v>647</v>
       </c>
       <c r="N7" s="7">
-        <v>520320</v>
+        <v>464657</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,46 +1961,46 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>2564</v>
+        <v>2049</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1672</v>
+        <v>1571</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="7">
+        <v>4</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3621</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M8" s="7">
-        <v>6</v>
-      </c>
-      <c r="N8" s="7">
-        <v>4236</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>94</v>
@@ -2012,10 +2012,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -2027,10 +2027,10 @@
         <v>22</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>22</v>
@@ -2042,10 +2042,10 @@
         <v>22</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>22</v>
@@ -2059,16 +2059,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>330</v>
+        <v>394</v>
       </c>
       <c r="D10" s="7">
-        <v>238051</v>
+        <v>267790</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>95</v>
@@ -2077,37 +2077,37 @@
         <v>96</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="H10" s="7">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="I10" s="7">
-        <v>226607</v>
+        <v>252530</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>647</v>
+        <v>754</v>
       </c>
       <c r="N10" s="7">
-        <v>464657</v>
+        <v>520320</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,46 +2116,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>2049</v>
+        <v>2564</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>102</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>1571</v>
+        <v>1672</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>3621</v>
+        <v>4236</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>108</v>
@@ -2167,10 +2167,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>22</v>
@@ -2182,10 +2182,10 @@
         <v>22</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>22</v>
@@ -2197,10 +2197,10 @@
         <v>22</v>
       </c>
       <c r="M12" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>22</v>
@@ -2226,7 +2226,7 @@
         <v>742877</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>109</v>
@@ -2262,7 +2262,7 @@
         <v>115</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,7 +2277,7 @@
         <v>6072</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>116</v>
@@ -2310,7 +2310,7 @@
         <v>121</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>122</v>
@@ -2383,7 +2383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1F94D5-A633-4586-8AA0-3B44D8FF250D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8202D1EF-DB58-487C-B354-73B39E10958E}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2576,7 +2576,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>129</v>
@@ -2656,46 +2656,46 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="D7" s="7">
-        <v>280157</v>
+        <v>249434</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="I7" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M7" s="7">
-        <v>753</v>
+        <v>722</v>
       </c>
       <c r="N7" s="7">
-        <v>547927</v>
+        <v>484767</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2707,22 +2707,22 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1472</v>
+        <v>618</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -2731,25 +2731,25 @@
         <v>18</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>1472</v>
+        <v>618</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,10 +2758,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -2773,10 +2773,10 @@
         <v>22</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>22</v>
@@ -2788,10 +2788,10 @@
         <v>22</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>22</v>
@@ -2805,52 +2805,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="D10" s="7">
-        <v>249434</v>
+        <v>280157</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="I10" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>753</v>
+      </c>
+      <c r="N10" s="7">
+        <v>547927</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7">
-        <v>722</v>
-      </c>
-      <c r="N10" s="7">
-        <v>484767</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2862,22 +2862,22 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>618</v>
+        <v>1472</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -2886,25 +2886,25 @@
         <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>618</v>
+        <v>1472</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,10 +2913,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>22</v>
@@ -2928,10 +2928,10 @@
         <v>22</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>22</v>
@@ -2943,10 +2943,10 @@
         <v>22</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>22</v>

--- a/data/trans_orig/IP1012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1012-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EDF8C78-2DFF-4762-9D3A-C86AF1B9F6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{402A1B8B-CD6D-4000-B6E8-963C7C34645F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2F34C41B-A991-40DA-A8E7-A41462735498}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC29C344-D040-4D14-9093-4590112814C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="184">
   <si>
     <t>Menores según si padecen ceguera o problemas de visión en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,439 +67,529 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>98,31%</t>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen ceguera o problemas de visión en 2012 (Tasa respuesta: 99,33%)</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen ceguera o problemas de visión en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen ceguera o problemas de visión en 2012 (Tasa respuesta: 99,33%)</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen ceguera o problemas de visión en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
     <t>99,9%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
+    <t>99,55%</t>
+  </si>
+  <si>
     <t>99,95%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
   </si>
 </sst>
 </file>
@@ -510,7 +600,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -606,39 +696,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -690,7 +780,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -801,13 +891,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -816,6 +899,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -880,19 +970,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192D1736-F97F-4F66-8959-4788351A1D00}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB7D31B-5D03-4B2B-8719-B872C22EF6C0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1009,10 +1119,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>222488</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1024,34 +1134,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>209562</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>432050</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1060,10 +1170,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="D5" s="7">
-        <v>673</v>
+        <v>121380</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1075,34 +1185,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="I5" s="7">
-        <v>634</v>
+        <v>106171</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>344</v>
       </c>
       <c r="N5" s="7">
-        <v>1307</v>
+        <v>227551</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1111,102 +1221,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>327</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>216042</v>
+        <v>2023</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>634</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>304</v>
-      </c>
-      <c r="I7" s="7">
-        <v>205222</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M7" s="7">
-        <v>631</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>421264</v>
+        <v>2656</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1215,49 +1325,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>379</v>
       </c>
       <c r="D8" s="7">
-        <v>1999</v>
+        <v>251733</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7">
+        <v>378</v>
+      </c>
+      <c r="I8" s="7">
+        <v>252571</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>757</v>
       </c>
       <c r="N8" s="7">
-        <v>1999</v>
+        <v>504305</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1266,102 +1376,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>278480</v>
+        <v>1293</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>264228</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M10" s="7">
-        <v>810</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>542708</v>
+        <v>1293</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1370,49 +1480,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="D11" s="7">
-        <v>3018</v>
+        <v>140222</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7">
+        <v>191</v>
+      </c>
+      <c r="I11" s="7">
+        <v>127548</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>401</v>
+      </c>
+      <c r="N11" s="7">
+        <v>267770</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1375</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="7">
-        <v>6</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4393</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1421,102 +1531,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1078</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>717011</v>
+        <v>2374</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1375</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I13" s="7">
-        <v>679012</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>5</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3749</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2093</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1396023</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1525,49 +1635,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>307</v>
       </c>
       <c r="D14" s="7">
-        <v>5689</v>
+        <v>203675</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="7">
+        <v>284</v>
+      </c>
+      <c r="I14" s="7">
+        <v>192722</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2009</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="7">
+        <v>591</v>
+      </c>
+      <c r="N14" s="7">
+        <v>396397</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="M14" s="7">
-        <v>11</v>
-      </c>
-      <c r="N14" s="7">
-        <v>7698</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1576,55 +1686,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5689</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2009</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="7">
+        <v>11</v>
+      </c>
+      <c r="N16" s="7">
+        <v>7698</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1078</v>
+      </c>
+      <c r="D17" s="7">
+        <v>717011</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1015</v>
+      </c>
+      <c r="I17" s="7">
+        <v>679012</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2093</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1396023</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>22</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1637,8 +1908,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554832B9-B12E-4DF0-B2E3-92958AFFE640}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE342D9-99C5-479C-9090-FAB41DBB92F9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1654,7 +1925,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1755,49 +2026,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>335</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>237035</v>
+        <v>1459</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>224548</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="M4" s="7">
-        <v>672</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>461583</v>
+        <v>1459</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,49 +2077,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="D5" s="7">
-        <v>1459</v>
+        <v>143861</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>146281</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>422</v>
       </c>
       <c r="N5" s="7">
-        <v>1459</v>
+        <v>290142</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,102 +2128,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>337</v>
+        <v>206</v>
       </c>
       <c r="D6" s="7">
-        <v>238494</v>
+        <v>145320</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>674</v>
+        <v>424</v>
       </c>
       <c r="N6" s="7">
-        <v>463042</v>
+        <v>291601</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>330</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>238051</v>
+        <v>2049</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="H7" s="7">
-        <v>317</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>226607</v>
+        <v>656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M7" s="7">
-        <v>647</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>464657</v>
+        <v>2705</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,49 +2232,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>369</v>
       </c>
       <c r="D8" s="7">
-        <v>2049</v>
+        <v>265052</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>336</v>
       </c>
       <c r="I8" s="7">
-        <v>1571</v>
+        <v>233820</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>705</v>
       </c>
       <c r="N8" s="7">
-        <v>3621</v>
+        <v>498871</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,102 +2283,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>468278</v>
+        <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>267790</v>
+        <v>634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H10" s="7">
-        <v>360</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>252530</v>
+        <v>915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M10" s="7">
-        <v>754</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>520320</v>
+        <v>1549</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,49 +2387,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>227</v>
       </c>
       <c r="D11" s="7">
-        <v>2564</v>
+        <v>157937</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="I11" s="7">
-        <v>1672</v>
+        <v>153919</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>446</v>
       </c>
       <c r="N11" s="7">
-        <v>4236</v>
+        <v>311856</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,102 +2438,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1059</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>742877</v>
+        <v>1930</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="H13" s="7">
-        <v>1014</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>703685</v>
+        <v>1672</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M13" s="7">
-        <v>2073</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>1446562</v>
+        <v>3602</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,49 +2542,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>259</v>
       </c>
       <c r="D14" s="7">
-        <v>6072</v>
+        <v>176027</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>241</v>
       </c>
       <c r="I14" s="7">
-        <v>3243</v>
+        <v>169665</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="N14" s="7">
-        <v>9315</v>
+        <v>345692</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,55 +2593,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>505</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6072</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3243</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" s="7">
+        <v>12</v>
+      </c>
+      <c r="N16" s="7">
+        <v>9315</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1059</v>
+      </c>
+      <c r="D17" s="7">
+        <v>742877</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1014</v>
+      </c>
+      <c r="I17" s="7">
+        <v>703685</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2073</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1446562</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1067</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>748949</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>706928</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2085</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1455877</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>22</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2383,8 +2815,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8202D1EF-DB58-487C-B354-73B39E10958E}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6FF52E-D4E6-447C-8E2E-9F9F45598E02}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2400,7 +2832,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2501,49 +2933,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>212517</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>201268</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M4" s="7">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>413785</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,49 +2984,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>646</v>
+        <v>124164</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>131654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>398</v>
       </c>
       <c r="N5" s="7">
-        <v>646</v>
+        <v>255818</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,102 +3035,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>362</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>249434</v>
+        <v>646</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>235333</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="M7" s="7">
-        <v>722</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>484767</v>
+        <v>646</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,49 +3139,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>379</v>
       </c>
       <c r="D8" s="7">
-        <v>618</v>
+        <v>257415</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>210517</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>711</v>
       </c>
       <c r="N8" s="7">
-        <v>618</v>
+        <v>467932</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,102 +3190,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>379</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>280157</v>
+        <v>618</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="H10" s="7">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>267770</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
-        <v>753</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>547927</v>
+        <v>618</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,49 +3294,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>262</v>
       </c>
       <c r="D11" s="7">
-        <v>1472</v>
+        <v>187954</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>272</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>188899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>534</v>
       </c>
       <c r="N11" s="7">
-        <v>1472</v>
+        <v>376853</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,102 +3345,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1061</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>742108</v>
+        <v>1472</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H13" s="7">
-        <v>1060</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>704371</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>2121</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>1446479</v>
+        <v>1472</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,49 +3449,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="D14" s="7">
-        <v>2736</v>
+        <v>172576</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>173301</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>478</v>
       </c>
       <c r="N14" s="7">
-        <v>2736</v>
+        <v>345876</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,55 +3500,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2736</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2736</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D17" s="7">
+        <v>742108</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1060</v>
+      </c>
+      <c r="I17" s="7">
+        <v>704371</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2121</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1446479</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>22</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1012-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{402A1B8B-CD6D-4000-B6E8-963C7C34645F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37AE7431-4B4F-45EA-B9F4-F6A86232A761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC29C344-D040-4D14-9093-4590112814C2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{84BB0F50-C7C5-4991-A7FD-1A51EFE51146}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="172">
   <si>
     <t>Menores según si padecen ceguera o problemas de visión en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -112,457 +112,424 @@
     <t>0,8%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,41%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen ceguera o problemas de visión en 2012 (Tasa respuesta: 99,33%)</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen ceguera o problemas de visión en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
   </si>
   <si>
     <t>99,86%</t>
   </si>
   <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen ceguera o problemas de visión en 2012 (Tasa respuesta: 99,33%)</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen ceguera o problemas de visión en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
     <t>99,31%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
+    <t>1,65%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
     <t>99,67%</t>
   </si>
   <si>
+    <t>98,35%</t>
+  </si>
+  <si>
     <t>99,3%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>99,34%</t>
-  </si>
-  <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>2,95%</t>
+    <t>2,73%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>1,49%</t>
+    <t>1,29%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>97,05%</t>
+    <t>97,27%</t>
   </si>
   <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>98,71%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,87%</t>
   </si>
   <si>
     <t>0,19%</t>
@@ -571,13 +538,10 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -586,7 +550,7 @@
     <t>99,81%</t>
   </si>
   <si>
-    <t>99,55%</t>
+    <t>99,53%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -1001,7 +965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB7D31B-5D03-4B2B-8719-B872C22EF6C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF20C575-ABD4-40E6-B95A-3037291464A7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1295,13 +1259,13 @@
         <v>634</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -1310,13 +1274,13 @@
         <v>2656</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1331,13 +1295,13 @@
         <v>251733</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H8" s="7">
         <v>378</v>
@@ -1346,10 +1310,10 @@
         <v>252571</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -1361,13 +1325,13 @@
         <v>504305</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1423,7 +1387,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1435,13 +1399,13 @@
         <v>1293</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1456,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1465,13 +1429,13 @@
         <v>1293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1486,10 +1450,10 @@
         <v>140222</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -1504,7 +1468,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -1516,10 +1480,10 @@
         <v>267770</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -1578,7 +1542,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1590,13 +1554,13 @@
         <v>2374</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1605,13 +1569,13 @@
         <v>1375</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1620,13 +1584,13 @@
         <v>3749</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1641,13 +1605,13 @@
         <v>203675</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>284</v>
@@ -1656,10 +1620,10 @@
         <v>192722</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -1671,13 +1635,13 @@
         <v>396397</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,13 +1709,13 @@
         <v>5689</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1760,13 +1724,13 @@
         <v>2009</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -1775,13 +1739,13 @@
         <v>7698</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,13 +1760,13 @@
         <v>717011</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7">
         <v>1015</v>
@@ -1811,13 +1775,13 @@
         <v>679012</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>2093</v>
@@ -1826,13 +1790,13 @@
         <v>1396023</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,7 +1852,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1908,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE342D9-99C5-479C-9090-FAB41DBB92F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D1943D-4593-40EA-84BA-83BAA3D63206}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1925,7 +1889,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2032,13 +1996,13 @@
         <v>1459</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2053,7 +2017,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2062,13 +2026,13 @@
         <v>1459</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,10 +2047,10 @@
         <v>143861</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -2101,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2113,10 +2077,10 @@
         <v>290142</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2187,13 +2151,13 @@
         <v>2049</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2202,13 +2166,13 @@
         <v>656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2217,13 +2181,13 @@
         <v>2705</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,10 +2202,10 @@
         <v>265052</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2253,10 +2217,10 @@
         <v>233820</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2268,13 +2232,13 @@
         <v>498871</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,7 +2294,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2342,13 +2306,13 @@
         <v>634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2357,13 +2321,13 @@
         <v>915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2372,13 +2336,13 @@
         <v>1549</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,10 +2357,10 @@
         <v>157937</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2408,10 +2372,10 @@
         <v>153919</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -2423,10 +2387,10 @@
         <v>311856</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2485,7 +2449,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2497,13 +2461,13 @@
         <v>1930</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2512,13 +2476,13 @@
         <v>1672</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2527,13 +2491,13 @@
         <v>3602</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2512,13 @@
         <v>176027</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H14" s="7">
         <v>241</v>
@@ -2563,10 +2527,10 @@
         <v>169665</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -2578,13 +2542,13 @@
         <v>345692</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2616,13 @@
         <v>6072</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -2667,13 +2631,13 @@
         <v>3243</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -2682,13 +2646,13 @@
         <v>9315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2667,13 @@
         <v>742877</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>1014</v>
@@ -2718,13 +2682,13 @@
         <v>703685</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M17" s="7">
         <v>2073</v>
@@ -2733,13 +2697,13 @@
         <v>1446562</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,7 +2759,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2815,7 +2779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6FF52E-D4E6-447C-8E2E-9F9F45598E02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDD73E7-8153-4742-81B0-EDF7EC15B87F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2832,7 +2796,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2945,7 +2909,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2960,7 +2924,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2975,7 +2939,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,7 +2957,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3008,7 +2972,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3023,7 +2987,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3094,13 +3058,13 @@
         <v>646</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3115,7 +3079,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3124,13 +3088,13 @@
         <v>646</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,10 +3109,10 @@
         <v>257415</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3163,7 +3127,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3175,10 +3139,10 @@
         <v>467932</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3237,7 +3201,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3249,13 +3213,13 @@
         <v>618</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3270,7 +3234,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3279,13 +3243,13 @@
         <v>618</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,10 +3264,10 @@
         <v>187954</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3318,7 +3282,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3330,10 +3294,10 @@
         <v>376853</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3392,7 +3356,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3404,13 +3368,13 @@
         <v>1472</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3434,13 +3398,13 @@
         <v>1472</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,10 +3419,10 @@
         <v>172576</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3485,10 +3449,10 @@
         <v>345876</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3559,13 +3523,13 @@
         <v>2736</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3589,13 +3553,13 @@
         <v>2736</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,13 +3574,13 @@
         <v>742108</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
         <v>1060</v>
@@ -3640,13 +3604,13 @@
         <v>1446479</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,7 +3666,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1012-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37AE7431-4B4F-45EA-B9F4-F6A86232A761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{455727F7-F30C-4255-A7DE-7917B1D08949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{84BB0F50-C7C5-4991-A7FD-1A51EFE51146}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D67EFFCF-C46C-41E0-BBFA-80FBA0C4B5A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="180">
   <si>
     <t>Menores según si padecen ceguera o problemas de visión en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -79,12 +79,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
@@ -94,31 +94,34 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>0,52%</t>
@@ -127,25 +130,28 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>1,19%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>98,81%</t>
+    <t>98,8%</t>
   </si>
   <si>
     <t>99,87%</t>
@@ -154,403 +160,421 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>3,19%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>1,85%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>96,81%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>98,15%</t>
+    <t>98,55%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
     <t>1,15%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>3,0%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen ceguera o problemas de visión en 2012 (Tasa respuesta: 99,33%)</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen ceguera o problemas de visión en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen ceguera o problemas de visión en 2012 (Tasa respuesta: 99,33%)</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen ceguera o problemas de visión en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>99,11%</t>
   </si>
   <si>
     <t>99,9%</t>
   </si>
   <si>
     <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -965,7 +989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF20C575-ABD4-40E6-B95A-3037291464A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B90F090-BBAC-4915-A06A-6BEF3A32C221}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1134,10 +1158,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>121380</v>
+        <v>106171</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1149,10 +1173,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>106171</v>
+        <v>121380</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1185,25 +1209,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1238,34 +1262,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>2023</v>
+        <v>634</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2023</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>634</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -1274,13 +1298,13 @@
         <v>2656</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1289,34 +1313,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>378</v>
+      </c>
+      <c r="D8" s="7">
+        <v>252571</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>379</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>251733</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="7">
-        <v>378</v>
-      </c>
-      <c r="I8" s="7">
-        <v>252571</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>757</v>
@@ -1325,13 +1349,13 @@
         <v>504305</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1340,25 +1364,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1387,40 +1411,40 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1293</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1429,13 +1453,13 @@
         <v>1293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1444,34 +1468,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>191</v>
+      </c>
+      <c r="D11" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>210</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>140222</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H11" s="7">
-        <v>191</v>
-      </c>
-      <c r="I11" s="7">
-        <v>127548</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>401</v>
@@ -1480,10 +1504,10 @@
         <v>267770</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -1495,25 +1519,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1542,40 +1566,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1375</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2374</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1375</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1584,13 +1608,13 @@
         <v>3749</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1599,34 +1623,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>284</v>
+      </c>
+      <c r="D14" s="7">
+        <v>192722</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
         <v>307</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>203675</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="7">
-        <v>284</v>
-      </c>
-      <c r="I14" s="7">
-        <v>192722</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
         <v>591</v>
@@ -1635,13 +1659,13 @@
         <v>396397</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1650,25 +1674,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1703,34 +1727,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2009</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="7">
         <v>8</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>5689</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2009</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -1739,13 +1763,13 @@
         <v>7698</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,34 +1778,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1015</v>
+      </c>
+      <c r="D17" s="7">
+        <v>679012</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="7">
         <v>1078</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>717011</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I17" s="7">
-        <v>679012</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>2093</v>
@@ -1790,13 +1814,13 @@
         <v>1396023</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1805,25 +1829,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1852,7 +1876,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1872,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D1943D-4593-40EA-84BA-83BAA3D63206}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9414A5-ECA2-4933-AFC4-39487EBEAC23}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1889,7 +1913,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1990,34 +2014,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1459</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2026,13 +2050,13 @@
         <v>1459</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,34 +2065,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>218</v>
+      </c>
+      <c r="D5" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>204</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>143861</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>218</v>
-      </c>
-      <c r="I5" s="7">
-        <v>146281</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>422</v>
@@ -2077,10 +2101,10 @@
         <v>290142</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2092,25 +2116,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>206</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>145320</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2145,34 +2169,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>2049</v>
+        <v>656</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>656</v>
+        <v>2049</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2181,13 +2205,13 @@
         <v>2705</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,31 +2220,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="D8" s="7">
-        <v>265052</v>
+        <v>233820</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="I8" s="7">
-        <v>233820</v>
+        <v>265052</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2232,13 +2256,13 @@
         <v>498871</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,25 +2271,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>267101</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2294,7 +2318,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2303,31 +2327,31 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>634</v>
+        <v>915</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>915</v>
+        <v>634</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2336,13 +2360,13 @@
         <v>1549</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,31 +2375,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D11" s="7">
-        <v>157937</v>
+        <v>153919</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="I11" s="7">
-        <v>153919</v>
+        <v>157937</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -2387,10 +2411,10 @@
         <v>311856</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2402,25 +2426,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>220</v>
+      </c>
+      <c r="D12" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>220</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2449,40 +2473,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1672</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1930</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1672</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2491,13 +2515,13 @@
         <v>3602</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,34 +2530,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>241</v>
+      </c>
+      <c r="D14" s="7">
+        <v>169665</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
         <v>259</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>176027</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" s="7">
-        <v>241</v>
-      </c>
-      <c r="I14" s="7">
-        <v>169665</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>500</v>
@@ -2542,13 +2566,13 @@
         <v>345692</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,25 +2581,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177957</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2610,34 +2634,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3243</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="7">
         <v>8</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>6072</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3243</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -2646,13 +2670,13 @@
         <v>9315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,34 +2685,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1014</v>
+      </c>
+      <c r="D17" s="7">
+        <v>703685</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="7">
         <v>1059</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>742877</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1014</v>
-      </c>
-      <c r="I17" s="7">
-        <v>703685</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M17" s="7">
         <v>2073</v>
@@ -2697,13 +2721,13 @@
         <v>1446562</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,25 +2736,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1067</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>748949</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2759,7 +2783,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDD73E7-8153-4742-81B0-EDF7EC15B87F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D333B1-B989-474A-A81A-6C8094D7DB97}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2796,7 +2820,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2909,7 +2933,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2924,7 +2948,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2939,7 +2963,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,31 +2972,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="D5" s="7">
-        <v>124164</v>
+        <v>131654</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="I5" s="7">
-        <v>131654</v>
+        <v>124164</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2987,7 +3011,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2999,25 +3023,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3052,34 +3076,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>646</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3088,13 +3112,13 @@
         <v>646</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,34 +3127,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>332</v>
+      </c>
+      <c r="D8" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>379</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>257415</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>332</v>
-      </c>
-      <c r="I8" s="7">
-        <v>210517</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>711</v>
@@ -3139,10 +3163,10 @@
         <v>467932</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3154,25 +3178,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3201,40 +3225,40 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>618</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3243,13 +3267,13 @@
         <v>618</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,34 +3282,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>272</v>
+      </c>
+      <c r="D11" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>262</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>187954</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H11" s="7">
-        <v>272</v>
-      </c>
-      <c r="I11" s="7">
-        <v>188899</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>534</v>
@@ -3294,10 +3318,10 @@
         <v>376853</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3309,25 +3333,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3356,40 +3380,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1472</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1472</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3398,13 +3422,13 @@
         <v>1472</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,31 +3437,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D14" s="7">
-        <v>172576</v>
+        <v>173301</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="I14" s="7">
-        <v>173301</v>
+        <v>172576</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3449,10 +3473,10 @@
         <v>345876</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3464,25 +3488,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3517,34 +3541,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>2736</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3553,13 +3577,13 @@
         <v>2736</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,34 +3592,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1060</v>
+      </c>
+      <c r="D17" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
         <v>1061</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>742108</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1060</v>
-      </c>
-      <c r="I17" s="7">
-        <v>704371</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7">
         <v>2121</v>
@@ -3604,13 +3628,13 @@
         <v>1446479</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,25 +3643,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3666,7 +3690,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
